--- a/inst/extdata/controlTables.xlsx
+++ b/inst/extdata/controlTables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB936334-E2B2-4491-AD33-C73FA3BC9BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C701C445-A2E8-4377-ABFF-8A52BADAE911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,12 +1270,6 @@
     <t>popArea</t>
   </si>
   <si>
-    <t>inputInfoType</t>
-  </si>
-  <si>
-    <t>inputInfoVal</t>
-  </si>
-  <si>
     <t>conus</t>
   </si>
   <si>
@@ -1307,6 +1301,12 @@
   </si>
   <si>
     <t>Information about module default scenarios</t>
+  </si>
+  <si>
+    <t>inputArgType</t>
+  </si>
+  <si>
+    <t>inputArgVal</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2048,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2197,23 +2197,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyFill="1"/>
   </cellXfs>
@@ -2284,29 +2269,108 @@
   </cellStyles>
   <dxfs count="157">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2465,32 +2529,6 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2653,110 +2691,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -3072,6 +3006,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3128,6 +3063,31 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3537,6 +3497,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -5498,10 +5483,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="readMeTables" displayName="readMeTables" ref="B9:C34" totalsRowShown="0" headerRowDxfId="153">
   <autoFilter ref="B9:C34" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}"/>
@@ -5514,115 +5495,115 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="71">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrCm[[#This Row],[row_id]] ) - ROW( co_slrCm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="70">
+    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="69">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_slrCm[[#This Row],[model]], "cm", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="65">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B139:E142">
     <sortCondition ref="E139:E142"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="57">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:G129" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:G129" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="51">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputType" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputType" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B22:G26" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:G25">
     <sortCondition ref="C33:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleInfo[[#This Row],[row_id]] ) - ROW(co_moduleInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scenarios[[#This Row],[row_id]] ) - ROW( co_scenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputInfoType" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputInfoVal" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5632,10 +5613,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -5644,16 +5625,16 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="13">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5663,17 +5644,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="24">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="8">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5843,10 +5824,10 @@
     <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="78"/>
     <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="77"/>
     <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="75">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6556,7 +6537,7 @@
         <v>94</v>
       </c>
       <c r="F4" s="47" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" ref="F4:F18" si="0" xml:space="preserve"> "row_id"</f>
         <v>row_id</v>
       </c>
       <c r="G4" s="9" cm="1">
@@ -6601,7 +6582,7 @@
         <v>94</v>
       </c>
       <c r="F5" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G5" s="16" cm="1">
@@ -6648,7 +6629,7 @@
         <v>94</v>
       </c>
       <c r="F6" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G6" s="16" cm="1">
@@ -6695,7 +6676,7 @@
         <v>94</v>
       </c>
       <c r="F7" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G7" s="16" cm="1">
@@ -6745,7 +6726,7 @@
         <v>94</v>
       </c>
       <c r="F8" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G8" s="16" cm="1">
@@ -6791,36 +6772,36 @@
       <c r="E9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="61" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+      <c r="F9" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
-      <c r="G9" s="62" cm="1">
+      <c r="G9" s="16" cm="1">
         <f t="array" aca="1" ref="G9" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
         <v>69</v>
       </c>
-      <c r="H9" s="62">
+      <c r="H9" s="16">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
         <v>4</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
         <v>73</v>
       </c>
-      <c r="J9" s="62" cm="1">
+      <c r="J9" s="16" cm="1">
         <f t="array" aca="1" ref="J9" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
         <v>2</v>
       </c>
-      <c r="K9" s="62" cm="1">
+      <c r="K9" s="16" cm="1">
         <f t="array" aca="1" ref="K9" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
         <v>6</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
         <v>5</v>
       </c>
       <c r="M9" s="29"/>
-      <c r="N9" s="63"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -6837,7 +6818,7 @@
         <v>94</v>
       </c>
       <c r="F10" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G10" s="16" cm="1">
@@ -6884,7 +6865,7 @@
         <v>94</v>
       </c>
       <c r="F11" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G11" s="16" cm="1">
@@ -6922,7 +6903,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -6930,36 +6911,36 @@
       <c r="E12" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="61" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+      <c r="F12" s="13" t="str">
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
-      <c r="G12" s="62" cm="1">
+      <c r="G12" s="16" cm="1">
         <f t="array" aca="1" ref="G12" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
         <v>104</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="16">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
         <v>12</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
         <v>116</v>
       </c>
-      <c r="J12" s="62" cm="1">
+      <c r="J12" s="16" cm="1">
         <f t="array" aca="1" ref="J12" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
         <v>2</v>
       </c>
-      <c r="K12" s="62" cm="1">
+      <c r="K12" s="16" cm="1">
         <f t="array" aca="1" ref="K12" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
         <v>6</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
         <v>5</v>
       </c>
       <c r="M12" s="29"/>
-      <c r="N12" s="63"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -6967,7 +6948,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -6976,7 +6957,7 @@
         <v>94</v>
       </c>
       <c r="F13" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G13" s="16" cm="1">
@@ -7023,7 +7004,7 @@
         <v>94</v>
       </c>
       <c r="F14" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G14" s="16" cm="1">
@@ -7070,7 +7051,7 @@
         <v>94</v>
       </c>
       <c r="F15" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G15" s="16" cm="1">
@@ -7117,7 +7098,7 @@
         <v>94</v>
       </c>
       <c r="F16" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G16" s="16" cm="1">
@@ -7164,7 +7145,7 @@
         <v>94</v>
       </c>
       <c r="F17" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G17" s="16" cm="1">
@@ -7211,7 +7192,7 @@
         <v>121</v>
       </c>
       <c r="F18" s="13" t="str">
-        <f xml:space="preserve"> "row_id"</f>
+        <f t="shared" si="0"/>
         <v>row_id</v>
       </c>
       <c r="G18" s="16" cm="1">
@@ -7261,9 +7242,9 @@
   </sheetPr>
   <dimension ref="A1:U225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D138" sqref="D138"/>
+      <selection pane="topRight" activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7306,7 +7287,7 @@
       <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C2" s="64" t="str">
+      <c r="C2" s="59" t="str">
         <f ca="1" xml:space="preserve"> OFFSET( INDIRECT( ADDRESS( ROW( co_moduleInfo[[#Headers],[row_id]] ), COLUMN( co_moduleInfo[[#Headers],[row_id]] ), , , ) ), -2, , 1, 1 )</f>
         <v>Module Info</v>
       </c>
@@ -7391,7 +7372,7 @@
         <v>Module Inputs/Default Scenarios</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -8072,10 +8053,10 @@
       <c r="D70" s="13">
         <v>1</v>
       </c>
-      <c r="E70" s="59">
+      <c r="E70" s="58">
         <v>1</v>
       </c>
-      <c r="F70" s="59"/>
+      <c r="F70" s="58"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B71" s="3">
@@ -8088,13 +8069,13 @@
       <c r="D71" s="13">
         <v>1</v>
       </c>
-      <c r="E71" s="59">
+      <c r="E71" s="58">
         <v>1</v>
       </c>
-      <c r="F71" s="59"/>
+      <c r="F71" s="58"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B72" s="58">
+      <c r="B72" s="3">
         <f xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
@@ -8104,11 +8085,11 @@
       <c r="D72" s="13">
         <v>1</v>
       </c>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B73" s="58">
+      <c r="B73" s="3">
         <f xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
@@ -8116,8 +8097,8 @@
         <v>287</v>
       </c>
       <c r="D73" s="13"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60">
+      <c r="E73" s="58"/>
+      <c r="F73" s="58">
         <v>1</v>
       </c>
     </row>
@@ -8618,10 +8599,10 @@
         <v>107</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -8639,7 +8620,7 @@
         <v>351</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -8657,7 +8638,7 @@
         <v>351</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -8675,7 +8656,7 @@
         <v>351</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -8693,7 +8674,7 @@
         <v>351</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -8711,7 +8692,7 @@
         <v>351</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -8760,7 +8741,7 @@
       <c r="E112" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="F112" s="61" t="s">
+      <c r="F112" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8778,7 +8759,7 @@
       <c r="E113" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="F113" s="61" t="s">
+      <c r="F113" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8788,13 +8769,13 @@
         <v>10</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D114" s="26" t="s">
         <v>301</v>
       </c>
       <c r="E114" s="13"/>
-      <c r="F114" s="61"/>
+      <c r="F114" s="13"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B115" s="3">
@@ -8802,13 +8783,13 @@
         <v>11</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D115" s="26" t="s">
         <v>299</v>
       </c>
       <c r="E115" s="13"/>
-      <c r="F115" s="61"/>
+      <c r="F115" s="13"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B116" s="3">
@@ -8816,13 +8797,13 @@
         <v>12</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D116" s="26" t="s">
         <v>300</v>
       </c>
       <c r="E116" s="13"/>
-      <c r="F116" s="61"/>
+      <c r="F116" s="13"/>
     </row>
     <row r="120" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
@@ -8968,7 +8949,7 @@
         <v>7</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
@@ -8985,7 +8966,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
@@ -9002,7 +8983,7 @@
         <v>7</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" x14ac:dyDescent="0.25">

--- a/inst/extdata/controlTables.xlsx
+++ b/inst/extdata/controlTables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C701C445-A2E8-4377-ABFF-8A52BADAE911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC0D72-74B5-4641-9E26-701CB65A8945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -1132,9 +1132,6 @@
     <t>CH4_ppbv</t>
   </si>
   <si>
-    <t>NOX_Mt</t>
-  </si>
-  <si>
     <t>ppbv</t>
   </si>
   <si>
@@ -1307,6 +1304,9 @@
   </si>
   <si>
     <t>inputArgVal</t>
+  </si>
+  <si>
+    <t>NOx_Mt</t>
   </si>
 </sst>
 </file>
@@ -6528,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="13">
         <v>1</v>
@@ -6573,7 +6573,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -6620,7 +6620,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
@@ -6764,7 +6764,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -6948,7 +6948,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -6995,7 +6995,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -7042,7 +7042,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -7243,8 +7243,8 @@
   <dimension ref="A1:U225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L86" sqref="L86"/>
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7292,7 +7292,7 @@
         <v>Module Info</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -7310,7 +7310,7 @@
         <v>Scalar Types</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -7318,7 +7318,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -7345,7 +7345,7 @@
         <v>SLR Scenario Heights</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -7372,7 +7372,7 @@
         <v>Module Inputs/Default Scenarios</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -7381,7 +7381,7 @@
         <v>Areas</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -7390,7 +7390,7 @@
         <v>Module Areas</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
     <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -7458,16 +7458,16 @@
         <v>296</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F22" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -7653,7 +7653,7 @@
     <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -7745,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E47" s="2"/>
       <c r="J47"/>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>88</v>
@@ -7983,13 +7983,13 @@
         <v>301</v>
       </c>
       <c r="F64" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="I64" s="24">
         <v>1</v>
@@ -8003,7 +8003,7 @@
     <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -8039,7 +8039,7 @@
         <v>49</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -8256,7 +8256,7 @@
     <row r="90" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -8307,7 +8307,7 @@
         <v>119</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L92" s="16" t="s">
         <v>60</v>
@@ -8467,7 +8467,7 @@
         <v>302</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F97" s="13">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>303</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F98" s="13">
         <v>0</v>
@@ -8517,7 +8517,7 @@
         <v>2020</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="K98" s="13" t="str">
         <f xml:space="preserve"> LOWER( co_inputInfo[[#This Row],[valueCol]] )</f>
@@ -8539,7 +8539,7 @@
         <v>43</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F99" s="13">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>2020</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K99" s="13" t="str">
         <f xml:space="preserve"> LOWER( co_inputInfo[[#This Row],[valueCol]] )</f>
@@ -8566,7 +8566,7 @@
     <row r="102" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -8593,16 +8593,16 @@
         <v>42</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>107</v>
       </c>
       <c r="E104" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F104" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -8611,16 +8611,16 @@
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -8629,16 +8629,16 @@
         <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D106" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -8647,16 +8647,16 @@
         <v>3</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D107" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -8665,16 +8665,16 @@
         <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D108" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -8683,16 +8683,16 @@
         <v>5</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D109" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -8701,7 +8701,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D110" s="26" t="s">
         <v>109</v>
@@ -8717,7 +8717,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D111" s="26" t="s">
         <v>109</v>
@@ -8733,13 +8733,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D112" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>141</v>
@@ -8751,13 +8751,13 @@
         <v>9</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D113" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>141</v>
@@ -8769,7 +8769,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D114" s="26" t="s">
         <v>301</v>
@@ -8783,7 +8783,7 @@
         <v>11</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D115" s="26" t="s">
         <v>299</v>
@@ -8797,7 +8797,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D116" s="26" t="s">
         <v>300</v>
@@ -8808,7 +8808,7 @@
     <row r="120" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
@@ -8864,13 +8864,13 @@
         <v>108</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G123" s="13"/>
     </row>
@@ -8883,13 +8883,13 @@
         <v>49</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G124" s="13"/>
     </row>
@@ -8902,16 +8902,16 @@
         <v>109</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
@@ -8923,16 +8923,16 @@
         <v>110</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
@@ -8949,7 +8949,7 @@
         <v>7</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
@@ -8966,7 +8966,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
@@ -8983,7 +8983,7 @@
         <v>7</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" x14ac:dyDescent="0.25">

--- a/inst/extdata/controlTables.xlsx
+++ b/inst/extdata/controlTables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC0D72-74B5-4641-9E26-701CB65A8945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCED295-96B8-493E-BD93-752BD8D3406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -1563,7 +1563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1815,6 +1815,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -2048,7 +2054,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2201,6 +2207,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="33" builtinId="30" customBuiltin="1"/>
@@ -2269,6 +2277,163 @@
   </cellStyles>
   <dxfs count="157">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -3482,80 +3647,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4074,89 +4165,6 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5495,115 +5503,115 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="71">
+    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="78">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrCm[[#This Row],[row_id]] ) - ROW( co_slrCm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="69">
+    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="76">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_slrCm[[#This Row],[model]], "cm", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="68"/>
+    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="72">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B139:E142">
     <sortCondition ref="E139:E142"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="64">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:G129" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:G129" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputType" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputType" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="B22:G26" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:G25">
     <sortCondition ref="C33:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleInfo[[#This Row],[row_id]] ) - ROW(co_moduleInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="40" totalsRowDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="36">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scenarios[[#This Row],[row_id]] ) - ROW( co_scenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5613,10 +5621,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="24">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -5625,16 +5633,16 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="20">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5644,17 +5652,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="15">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5759,75 +5767,75 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarTypes" displayName="co_scalarTypes" ref="B42:C47" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarTypes" displayName="co_scalarTypes" ref="B42:C47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B42:C47" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:C47">
     <sortCondition ref="C43:C47"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="102">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="1">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarTypes[[#This Row],[row_id]] ) - ROW( co_scalarTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarType" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarType" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B52:E55" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B52:E55" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="98">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="102">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierLabel" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierLabel" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B92:L99" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B92:L99" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="92">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="96">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="87">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="91">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[driverMaxOutput], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{529C7942-976A-4B70-B5DE-FAD89A0065FC}" name="refYear" dataDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{33838F63-5751-4209-AF1E-14DFB927DF2E}" name="minYear" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{99885E6A-BA0C-4550-ACB2-9BF751DC0F7C}" name="valueColLC" dataDxfId="83">
+    <tableColumn id="10" xr3:uid="{529C7942-976A-4B70-B5DE-FAD89A0065FC}" name="refYear" dataDxfId="90"/>
+    <tableColumn id="11" xr3:uid="{33838F63-5751-4209-AF1E-14DFB927DF2E}" name="minYear" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{99885E6A-BA0C-4550-ACB2-9BF751DC0F7C}" name="valueColLC" dataDxfId="87">
       <calculatedColumnFormula xml:space="preserve"> LOWER( co_inputInfo[[#This Row],[valueCol]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B173:H225" totalsRowShown="0" headerRowDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B173:H225" totalsRowShown="0" headerRowDxfId="85">
   <autoFilter ref="B173:H225" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="84">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="75">
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7242,9 +7250,9 @@
   </sheetPr>
   <dimension ref="A1:U225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9489,7 +9497,7 @@
       <c r="F174" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G174" s="48" t="str" cm="1">
+      <c r="G174" s="60" t="str" cm="1">
         <f t="array" ref="G174" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9514,7 +9522,7 @@
       <c r="F175" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="G175" s="49" t="str" cm="1">
+      <c r="G175" s="61" t="str" cm="1">
         <f t="array" ref="G175" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>AK</v>
       </c>
@@ -9539,7 +9547,7 @@
       <c r="F176" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="G176" s="48" t="str" cm="1">
+      <c r="G176" s="60" t="str" cm="1">
         <f t="array" ref="G176" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9564,7 +9572,7 @@
       <c r="F177" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G177" s="48" t="str" cm="1">
+      <c r="G177" s="60" t="str" cm="1">
         <f t="array" ref="G177" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9589,7 +9597,7 @@
       <c r="F178" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="G178" s="48" t="str" cm="1">
+      <c r="G178" s="60" t="str" cm="1">
         <f t="array" ref="G178" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9614,7 +9622,7 @@
       <c r="F179" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="G179" s="48" t="str" cm="1">
+      <c r="G179" s="60" t="str" cm="1">
         <f t="array" ref="G179" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9639,7 +9647,7 @@
       <c r="F180" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G180" s="48" t="str" cm="1">
+      <c r="G180" s="60" t="str" cm="1">
         <f t="array" ref="G180" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9664,7 +9672,7 @@
       <c r="F181" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G181" s="48" t="str" cm="1">
+      <c r="G181" s="60" t="str" cm="1">
         <f t="array" ref="G181" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9689,7 +9697,7 @@
       <c r="F182" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G182" s="48" t="str" cm="1">
+      <c r="G182" s="60" t="str" cm="1">
         <f t="array" ref="G182" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9714,7 +9722,7 @@
       <c r="F183" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G183" s="48" t="str" cm="1">
+      <c r="G183" s="60" t="str" cm="1">
         <f t="array" ref="G183" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9739,7 +9747,7 @@
       <c r="F184" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G184" s="48" t="str" cm="1">
+      <c r="G184" s="60" t="str" cm="1">
         <f t="array" ref="G184" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9764,7 +9772,7 @@
       <c r="F185" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="G185" s="49" t="str" cm="1">
+      <c r="G185" s="61" t="str" cm="1">
         <f t="array" ref="G185" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>HI</v>
       </c>
@@ -9789,7 +9797,7 @@
       <c r="F186" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="G186" s="48" t="str" cm="1">
+      <c r="G186" s="60" t="str" cm="1">
         <f t="array" ref="G186" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9814,7 +9822,7 @@
       <c r="F187" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G187" s="48" t="str" cm="1">
+      <c r="G187" s="60" t="str" cm="1">
         <f t="array" ref="G187" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9839,7 +9847,7 @@
       <c r="F188" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G188" s="48" t="str" cm="1">
+      <c r="G188" s="60" t="str" cm="1">
         <f t="array" ref="G188" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9864,7 +9872,7 @@
       <c r="F189" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G189" s="48" t="str" cm="1">
+      <c r="G189" s="60" t="str" cm="1">
         <f t="array" ref="G189" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9889,7 +9897,7 @@
       <c r="F190" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="G190" s="48" t="str" cm="1">
+      <c r="G190" s="60" t="str" cm="1">
         <f t="array" ref="G190" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9914,7 +9922,7 @@
       <c r="F191" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G191" s="48" t="str" cm="1">
+      <c r="G191" s="60" t="str" cm="1">
         <f t="array" ref="G191" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9939,7 +9947,7 @@
       <c r="F192" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G192" s="48" t="str" cm="1">
+      <c r="G192" s="60" t="str" cm="1">
         <f t="array" ref="G192" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9964,7 +9972,7 @@
       <c r="F193" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G193" s="48" t="str" cm="1">
+      <c r="G193" s="60" t="str" cm="1">
         <f t="array" ref="G193" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -9989,7 +9997,7 @@
       <c r="F194" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G194" s="48" t="str" cm="1">
+      <c r="G194" s="60" t="str" cm="1">
         <f t="array" ref="G194" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10014,7 +10022,7 @@
       <c r="F195" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G195" s="48" t="str" cm="1">
+      <c r="G195" s="60" t="str" cm="1">
         <f t="array" ref="G195" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10039,7 +10047,7 @@
       <c r="F196" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G196" s="48" t="str" cm="1">
+      <c r="G196" s="60" t="str" cm="1">
         <f t="array" ref="G196" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10064,7 +10072,7 @@
       <c r="F197" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G197" s="48" t="str" cm="1">
+      <c r="G197" s="60" t="str" cm="1">
         <f t="array" ref="G197" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10089,7 +10097,7 @@
       <c r="F198" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G198" s="48" t="str" cm="1">
+      <c r="G198" s="60" t="str" cm="1">
         <f t="array" ref="G198" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10114,7 +10122,7 @@
       <c r="F199" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G199" s="48" t="str" cm="1">
+      <c r="G199" s="60" t="str" cm="1">
         <f t="array" ref="G199" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10139,7 +10147,7 @@
       <c r="F200" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="G200" s="48" t="str" cm="1">
+      <c r="G200" s="60" t="str" cm="1">
         <f t="array" ref="G200" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10164,7 +10172,7 @@
       <c r="F201" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="G201" s="48" t="str" cm="1">
+      <c r="G201" s="60" t="str" cm="1">
         <f t="array" ref="G201" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10189,7 +10197,7 @@
       <c r="F202" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="G202" s="48" t="str" cm="1">
+      <c r="G202" s="60" t="str" cm="1">
         <f t="array" ref="G202" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10214,7 +10222,7 @@
       <c r="F203" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G203" s="48" t="str" cm="1">
+      <c r="G203" s="60" t="str" cm="1">
         <f t="array" ref="G203" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10239,7 +10247,7 @@
       <c r="F204" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G204" s="48" t="str" cm="1">
+      <c r="G204" s="60" t="str" cm="1">
         <f t="array" ref="G204" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10264,7 +10272,7 @@
       <c r="F205" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="G205" s="48" t="str" cm="1">
+      <c r="G205" s="60" t="str" cm="1">
         <f t="array" ref="G205" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10289,7 +10297,7 @@
       <c r="F206" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G206" s="48" t="str" cm="1">
+      <c r="G206" s="60" t="str" cm="1">
         <f t="array" ref="G206" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10314,7 +10322,7 @@
       <c r="F207" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G207" s="48" t="str" cm="1">
+      <c r="G207" s="60" t="str" cm="1">
         <f t="array" ref="G207" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10339,7 +10347,7 @@
       <c r="F208" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="G208" s="48" t="str" cm="1">
+      <c r="G208" s="60" t="str" cm="1">
         <f t="array" ref="G208" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10364,7 +10372,7 @@
       <c r="F209" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G209" s="48" t="str" cm="1">
+      <c r="G209" s="60" t="str" cm="1">
         <f t="array" ref="G209" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10389,7 +10397,7 @@
       <c r="F210" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="G210" s="48" t="str" cm="1">
+      <c r="G210" s="60" t="str" cm="1">
         <f t="array" ref="G210" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10414,7 +10422,7 @@
       <c r="F211" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="G211" s="48" t="str" cm="1">
+      <c r="G211" s="60" t="str" cm="1">
         <f t="array" ref="G211" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10439,7 +10447,7 @@
       <c r="F212" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G212" s="48" t="str" cm="1">
+      <c r="G212" s="60" t="str" cm="1">
         <f t="array" ref="G212" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10464,7 +10472,7 @@
       <c r="F213" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G213" s="48" t="str" cm="1">
+      <c r="G213" s="60" t="str" cm="1">
         <f t="array" ref="G213" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10489,7 +10497,7 @@
       <c r="F214" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G214" s="48" t="str" cm="1">
+      <c r="G214" s="60" t="str" cm="1">
         <f t="array" ref="G214" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10514,7 +10522,7 @@
       <c r="F215" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="G215" s="48" t="str" cm="1">
+      <c r="G215" s="60" t="str" cm="1">
         <f t="array" ref="G215" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10539,7 +10547,7 @@
       <c r="F216" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G216" s="48" t="str" cm="1">
+      <c r="G216" s="60" t="str" cm="1">
         <f t="array" ref="G216" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10564,7 +10572,7 @@
       <c r="F217" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="G217" s="48" t="str" cm="1">
+      <c r="G217" s="60" t="str" cm="1">
         <f t="array" ref="G217" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10589,7 +10597,7 @@
       <c r="F218" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="G218" s="48" t="str" cm="1">
+      <c r="G218" s="60" t="str" cm="1">
         <f t="array" ref="G218" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10614,7 +10622,7 @@
       <c r="F219" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G219" s="48" t="str" cm="1">
+      <c r="G219" s="60" t="str" cm="1">
         <f t="array" ref="G219" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10639,7 +10647,7 @@
       <c r="F220" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="G220" s="48" t="str" cm="1">
+      <c r="G220" s="60" t="str" cm="1">
         <f t="array" ref="G220" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10664,7 +10672,7 @@
       <c r="F221" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="G221" s="48" t="str" cm="1">
+      <c r="G221" s="60" t="str" cm="1">
         <f t="array" ref="G221" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10689,7 +10697,7 @@
       <c r="F222" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G222" s="48" t="str" cm="1">
+      <c r="G222" s="60" t="str" cm="1">
         <f t="array" ref="G222" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10714,7 +10722,7 @@
       <c r="F223" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="G223" s="48" t="str" cm="1">
+      <c r="G223" s="60" t="str" cm="1">
         <f t="array" ref="G223" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10739,7 +10747,7 @@
       <c r="F224" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="G224" s="48" t="str" cm="1">
+      <c r="G224" s="60" t="str" cm="1">
         <f t="array" ref="G224" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
@@ -10764,7 +10772,7 @@
       <c r="F225" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="G225" s="49" t="str" cm="1">
+      <c r="G225" s="61" t="str" cm="1">
         <f t="array" ref="G225" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>US</v>
       </c>

--- a/inst/extdata/controlTables.xlsx
+++ b/inst/extdata/controlTables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCED295-96B8-493E-BD93-752BD8D3406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC3F201-11BE-49F8-A803-29D257B5DE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="370">
   <si>
     <t>Midwest</t>
   </si>
@@ -1237,30 +1237,12 @@
     <t>scenarioName</t>
   </si>
   <si>
-    <t>baseline_temp_C</t>
-  </si>
-  <si>
-    <t>mitigated_temp_C</t>
-  </si>
-  <si>
     <t>Hector_v5.3_GCAM</t>
   </si>
   <si>
-    <t>rff_temp_mean</t>
-  </si>
-  <si>
-    <t>temp_0to6_to2300</t>
-  </si>
-  <si>
-    <t>rff_gdp_mean</t>
-  </si>
-  <si>
     <t>ICLUS_State_Population</t>
   </si>
   <si>
-    <t>rff_pop_mean</t>
-  </si>
-  <si>
     <t>tempType</t>
   </si>
   <si>
@@ -1307,6 +1289,36 @@
   </si>
   <si>
     <t>NOx_Mt</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>mitigated</t>
+  </si>
+  <si>
+    <t>rff_mean</t>
+  </si>
+  <si>
+    <t>0to6_to2300</t>
+  </si>
+  <si>
+    <t>groupCols</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>postal, model</t>
+  </si>
+  <si>
+    <t>state, postal</t>
+  </si>
+  <si>
+    <t>idCol0</t>
+  </si>
+  <si>
+    <t>ECS_3.0_REF</t>
   </si>
 </sst>
 </file>
@@ -2275,115 +2287,7 @@
     <cellStyle name="YellowCell 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="z A Column text" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="157">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="159">
     <dxf>
       <font>
         <b val="0"/>
@@ -2407,6 +2311,7 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2425,13 +2330,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3647,6 +3552,80 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4165,6 +4144,89 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5286,11 +5348,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Table Style 2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{03CADF67-A835-4D43-81C5-75376CF934E2}">
-      <tableStyleElement type="wholeTable" dxfId="156"/>
+      <tableStyleElement type="wholeTable" dxfId="158"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="2" xr9:uid="{5906E8DD-1157-4888-9A27-3B2DB57DF7A2}">
-      <tableStyleElement type="wholeTable" dxfId="155"/>
-      <tableStyleElement type="headerRow" dxfId="154"/>
+      <tableStyleElement type="wholeTable" dxfId="157"/>
+      <tableStyleElement type="headerRow" dxfId="156"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5492,10 +5554,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="readMeTables" displayName="readMeTables" ref="B9:C34" totalsRowShown="0" headerRowDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="readMeTables" displayName="readMeTables" ref="B9:C34" totalsRowShown="0" headerRowDxfId="155">
   <autoFilter ref="B9:C34" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="152"/>
+    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="154"/>
     <tableColumn id="2" xr3:uid="{873A529C-ADE9-47CF-B36A-585DA33D7B04}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5503,115 +5565,116 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="73">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrCm[[#This Row],[row_id]] ) - ROW( co_slrCm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="76">
+    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="71">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_slrCm[[#This Row],[model]], "cm", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="75"/>
+    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="67">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B139:E142">
     <sortCondition ref="E139:E142"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="59">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:G129" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:H129" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="53">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputType" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputName" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{6FE2E9D8-6B04-436E-8205-1717138EBEA7}" name="idCol0" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B22:G26" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:G25">
     <sortCondition ref="C33:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleInfo[[#This Row],[row_id]] ) - ROW(co_moduleInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="35" totalsRowDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="36">
+    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="31">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="24">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scenarios[[#This Row],[row_id]] ) - ROW( co_scenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5621,10 +5684,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="19">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -5633,16 +5696,16 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="15">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5652,24 +5715,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="15">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="10">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N18" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N18" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152">
   <autoFilter ref="B3:N18" xr:uid="{AD244AAD-EF2A-4E3D-905E-7CC1947F3F1F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:N18">
     <sortCondition descending="1" ref="D4:D18"/>
@@ -5677,165 +5740,166 @@
     <sortCondition ref="G4:G18"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="149">
+    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="151">
       <calculatedColumnFormula xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="148"/>
-    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="146"/>
-    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="145">
+    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="147">
       <calculatedColumnFormula xml:space="preserve"> "row_id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="144">
+    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="146">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="143">
+    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="145">
       <calculatedColumnFormula xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="142">
+    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="144">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="141">
+    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="143">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="140">
+    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="142">
       <calculatedColumnFormula array="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="139">
+    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="141">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="138"/>
-    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="137"/>
+    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="140"/>
+    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B61:L64" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B61:L64" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="134">
+    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="136">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="model_type" dataDxfId="133"/>
-    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="model_type_label" dataDxfId="132"/>
-    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="131"/>
-    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="driverType" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="driverUnit" dataDxfId="129"/>
-    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="driverUnit_label" dataDxfId="128"/>
-    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="driverUnitScale" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="driverRefYear" dataDxfId="126"/>
-    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="driverDataMax" dataDxfId="125"/>
-    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="driverMaxOutput" dataDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="model_type" dataDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="model_type_label" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="driverType" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="driverUnit" dataDxfId="131"/>
+    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="driverUnit_label" dataDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="driverUnitScale" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="driverRefYear" dataDxfId="128"/>
+    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="driverDataMax" dataDxfId="127"/>
+    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="driverMaxOutput" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B158:F168" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B158:F168" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="121">
+    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="123">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{B2F7BCB9-ACFB-4849-90FD-501F8A0425D8}" name="area" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{60D1F88E-52A8-448B-91FE-62AD01BC601A}" name="region_order" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{B2F7BCB9-ACFB-4849-90FD-501F8A0425D8}" name="area" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{60D1F88E-52A8-448B-91FE-62AD01BC601A}" name="region_order" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impYrLvls" displayName="co_impYrLvls" ref="B32:F35" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impYrLvls" displayName="co_impYrLvls" ref="B32:F35" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="B32:F35" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:F35">
     <sortCondition ref="F33:F35"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impYrLvls[[#This Row],[row_id]] ) - ROW(co_impYrLvls[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="impactYear" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="impactYear_label" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="impYrNum" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="row0" dataDxfId="106" totalsRowDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="impactYear" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="impactYear_label" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="impYrNum" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="row0" dataDxfId="108" totalsRowDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarTypes" displayName="co_scalarTypes" ref="B42:C47" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarTypes" displayName="co_scalarTypes" ref="B42:C47" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="B42:C47" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:C47">
     <sortCondition ref="C43:C47"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="104">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarTypes[[#This Row],[row_id]] ) - ROW( co_scalarTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarType" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarType" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B52:E55" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B52:E55" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="102">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="100">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierLabel" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierLabel" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B92:L99" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B92:M99" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="94">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="91">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="89">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[driverMaxOutput], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{529C7942-976A-4B70-B5DE-FAD89A0065FC}" name="refYear" dataDxfId="90"/>
-    <tableColumn id="11" xr3:uid="{33838F63-5751-4209-AF1E-14DFB927DF2E}" name="minYear" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{99885E6A-BA0C-4550-ACB2-9BF751DC0F7C}" name="valueColLC" dataDxfId="87">
+    <tableColumn id="10" xr3:uid="{529C7942-976A-4B70-B5DE-FAD89A0065FC}" name="refYear" dataDxfId="88"/>
+    <tableColumn id="11" xr3:uid="{33838F63-5751-4209-AF1E-14DFB927DF2E}" name="minYear" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{99885E6A-BA0C-4550-ACB2-9BF751DC0F7C}" name="valueColLC" dataDxfId="85">
       <calculatedColumnFormula xml:space="preserve"> LOWER( co_inputInfo[[#This Row],[valueCol]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="84"/>
+    <tableColumn id="12" xr3:uid="{FB827980-3826-439F-9F41-FE917F82F38E}" name="groupCols" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B173:H225" totalsRowShown="0" headerRowDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B173:H225" totalsRowShown="0" headerRowDxfId="83">
   <autoFilter ref="B173:H225" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="84">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="82">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="77">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6894,11 +6958,11 @@
       </c>
       <c r="K11" s="16" cm="1">
         <f t="array" aca="1" ref="K11" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M11" s="29"/>
       <c r="N11" s="28" t="s">
@@ -6911,7 +6975,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -6956,7 +7020,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -6986,11 +7050,11 @@
       </c>
       <c r="K13" s="16" cm="1">
         <f t="array" aca="1" ref="K13" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L13" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="28" t="s">
@@ -7250,9 +7314,9 @@
   </sheetPr>
   <dimension ref="A1:U225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D42" sqref="D42"/>
+      <selection pane="topRight" activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7380,7 +7444,7 @@
         <v>Module Inputs/Default Scenarios</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -8320,6 +8384,9 @@
       <c r="L92" s="16" t="s">
         <v>60</v>
       </c>
+      <c r="M92" s="14" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B93" s="3">
@@ -8355,6 +8422,9 @@
       <c r="L93" s="13">
         <v>0</v>
       </c>
+      <c r="M93" s="13" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B94" s="3">
@@ -8390,6 +8460,9 @@
       <c r="L94" s="13">
         <v>0</v>
       </c>
+      <c r="M94" s="13" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B95" s="3">
@@ -8426,6 +8499,7 @@
       <c r="L95" s="13">
         <v>0</v>
       </c>
+      <c r="M95" s="13"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B96" s="3">
@@ -8462,6 +8536,9 @@
       <c r="L96" s="13">
         <v>1</v>
       </c>
+      <c r="M96" s="13" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B97" s="3">
@@ -8498,6 +8575,7 @@
       <c r="L97" s="13">
         <v>0</v>
       </c>
+      <c r="M97" s="13"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B98" s="3">
@@ -8525,7 +8603,7 @@
         <v>2020</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K98" s="13" t="str">
         <f xml:space="preserve"> LOWER( co_inputInfo[[#This Row],[valueCol]] )</f>
@@ -8534,6 +8612,7 @@
       <c r="L98" s="13">
         <v>0</v>
       </c>
+      <c r="M98" s="13"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B99" s="3">
@@ -8569,6 +8648,9 @@
       </c>
       <c r="L99" s="13">
         <v>1</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -8607,10 +8689,10 @@
         <v>107</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -8619,16 +8701,16 @@
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="D105" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -8637,16 +8719,16 @@
         <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="D106" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -8655,16 +8737,16 @@
         <v>3</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D107" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -8673,16 +8755,16 @@
         <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="D108" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -8691,16 +8773,16 @@
         <v>5</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="D109" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -8725,7 +8807,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="D111" s="26" t="s">
         <v>109</v>
@@ -8741,13 +8823,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D112" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>141</v>
@@ -8759,13 +8841,13 @@
         <v>9</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D113" s="26" t="s">
         <v>110</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>141</v>
@@ -8777,7 +8859,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D114" s="26" t="s">
         <v>301</v>
@@ -8791,7 +8873,7 @@
         <v>11</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D115" s="26" t="s">
         <v>299</v>
@@ -8805,7 +8887,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D116" s="26" t="s">
         <v>300</v>
@@ -8848,18 +8930,21 @@
         <v>42</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D122" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E122" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="F122" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="F122" s="16" t="s">
+      <c r="G122" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="H122" s="16" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8871,16 +8956,19 @@
       <c r="C123" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D123" s="13" t="s">
-        <v>344</v>
+      <c r="D123" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="G123" s="13"/>
+        <v>369</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H123" s="13"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B124" s="3">
@@ -8890,16 +8978,19 @@
       <c r="C124" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D124" s="13" t="s">
-        <v>344</v>
+      <c r="D124" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="G124" s="13"/>
+        <v>369</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B125" s="3">
@@ -8909,8 +9000,8 @@
       <c r="C125" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>338</v>
+      <c r="D125" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>338</v>
@@ -8918,7 +9009,10 @@
       <c r="F125" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="G125" s="6" t="s">
+      <c r="G125" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="H125" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8931,16 +9025,19 @@
         <v>110</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
@@ -8951,13 +9048,16 @@
       <c r="C127" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D127" s="13"/>
+      <c r="D127" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="E127" s="13"/>
-      <c r="F127" s="13" t="s">
+      <c r="F127" s="13"/>
+      <c r="G127" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G127" s="13" t="s">
-        <v>358</v>
+      <c r="H127" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
@@ -8968,13 +9068,16 @@
       <c r="C128" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D128" s="13"/>
+      <c r="D128" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="E128" s="13"/>
-      <c r="F128" s="13" t="s">
+      <c r="F128" s="13"/>
+      <c r="G128" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G128" s="13" t="s">
-        <v>357</v>
+      <c r="H128" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
@@ -8985,13 +9088,16 @@
       <c r="C129" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D129" s="13"/>
+      <c r="D129" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="E129" s="13"/>
-      <c r="F129" s="13" t="s">
+      <c r="F129" s="13"/>
+      <c r="G129" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G129" s="13" t="s">
-        <v>359</v>
+      <c r="H129" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" x14ac:dyDescent="0.25">

--- a/inst/extdata/controlTables.xlsx
+++ b/inst/extdata/controlTables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC3F201-11BE-49F8-A803-29D257B5DE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C95D62-CC00-4498-8185-4BD9BB9B4CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="367">
   <si>
     <t>Midwest</t>
   </si>
@@ -1253,15 +1253,6 @@
   </si>
   <si>
     <t>global</t>
-  </si>
-  <si>
-    <t>o3default</t>
-  </si>
-  <si>
-    <t>ch4default</t>
-  </si>
-  <si>
-    <t>noxdefault</t>
   </si>
   <si>
     <t>noxDefault</t>
@@ -2289,56 +2280,6 @@
   </cellStyles>
   <dxfs count="159">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -3177,6 +3118,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3722,6 +3688,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5565,116 +5556,116 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="72">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrCm[[#This Row],[row_id]] ) - ROW( co_slrCm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="70">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_slrCm[[#This Row],[model]], "cm", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="70"/>
+    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="66">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B139:E142">
     <sortCondition ref="E139:E142"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:H129" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:H129" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputName" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{6FE2E9D8-6B04-436E-8205-1717138EBEA7}" name="idCol0" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputName" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{6FE2E9D8-6B04-436E-8205-1717138EBEA7}" name="idCol0" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="B22:G26" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:G25">
     <sortCondition ref="C33:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleInfo[[#This Row],[row_id]] ) - ROW(co_moduleInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="29">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scenarios[[#This Row],[row_id]] ) - ROW( co_scenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5684,10 +5675,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -5696,16 +5687,16 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="13">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5715,17 +5706,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="8">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5879,27 +5870,27 @@
       <calculatedColumnFormula xml:space="preserve"> LOWER( co_inputInfo[[#This Row],[valueCol]] )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="84"/>
-    <tableColumn id="12" xr3:uid="{FB827980-3826-439F-9F41-FE917F82F38E}" name="groupCols" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{FB827980-3826-439F-9F41-FE917F82F38E}" name="groupCols" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B173:H225" totalsRowShown="0" headerRowDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B173:H225" totalsRowShown="0" headerRowDxfId="82">
   <autoFilter ref="B173:H225" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="82">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="81">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="77">
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="76">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6975,7 +6966,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -7020,7 +7011,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -7316,7 +7307,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H117" sqref="H117"/>
+      <selection pane="topRight" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7444,7 +7435,7 @@
         <v>Module Inputs/Default Scenarios</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -8385,7 +8376,7 @@
         <v>60</v>
       </c>
       <c r="M92" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -8423,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -8461,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -8537,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
@@ -8603,7 +8594,7 @@
         <v>2020</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K98" s="13" t="str">
         <f xml:space="preserve"> LOWER( co_inputInfo[[#This Row],[valueCol]] )</f>
@@ -8650,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -8689,10 +8680,10 @@
         <v>107</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -8701,7 +8692,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D105" s="26" t="s">
         <v>108</v>
@@ -8719,7 +8710,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D106" s="26" t="s">
         <v>108</v>
@@ -8755,7 +8746,7 @@
         <v>4</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D108" s="26" t="s">
         <v>108</v>
@@ -8773,7 +8764,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D109" s="26" t="s">
         <v>108</v>
@@ -8807,7 +8798,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D111" s="26" t="s">
         <v>109</v>
@@ -8841,7 +8832,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D113" s="26" t="s">
         <v>110</v>
@@ -8859,7 +8850,7 @@
         <v>10</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D114" s="26" t="s">
         <v>301</v>
@@ -8887,7 +8878,7 @@
         <v>12</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D116" s="26" t="s">
         <v>300</v>
@@ -8933,7 +8924,7 @@
         <v>107</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>284</v>
@@ -8957,16 +8948,16 @@
         <v>108</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H123" s="13"/>
     </row>
@@ -8979,16 +8970,16 @@
         <v>49</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H124" s="13"/>
     </row>
@@ -9057,7 +9048,7 @@
         <v>7</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
@@ -9077,7 +9068,7 @@
         <v>7</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
@@ -9097,7 +9088,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" x14ac:dyDescent="0.25">

--- a/inst/extdata/controlTables.xlsx
+++ b/inst/extdata/controlTables.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C95D62-CC00-4498-8185-4BD9BB9B4CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A098C3-926A-40EC-87BE-15D09BCCE555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="367">
   <si>
     <t>Midwest</t>
   </si>
@@ -2278,7 +2278,7 @@
     <cellStyle name="YellowCell 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="z A Column text" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="160">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
@@ -2382,6 +2382,31 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5339,11 +5364,11 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Table Style 2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{03CADF67-A835-4D43-81C5-75376CF934E2}">
-      <tableStyleElement type="wholeTable" dxfId="158"/>
+      <tableStyleElement type="wholeTable" dxfId="159"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="2" xr9:uid="{5906E8DD-1157-4888-9A27-3B2DB57DF7A2}">
-      <tableStyleElement type="wholeTable" dxfId="157"/>
-      <tableStyleElement type="headerRow" dxfId="156"/>
+      <tableStyleElement type="wholeTable" dxfId="158"/>
+      <tableStyleElement type="headerRow" dxfId="157"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5545,10 +5570,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="readMeTables" displayName="readMeTables" ref="B9:C34" totalsRowShown="0" headerRowDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}" name="readMeTables" displayName="readMeTables" ref="B9:C34" totalsRowShown="0" headerRowDxfId="156">
   <autoFilter ref="B9:C34" xr:uid="{DBDF25E7-D35C-4344-9B72-491345FCBF34}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{306AD3FA-EE0B-4D9C-828A-C0B76198AE0B}" name="Worksheet" dataDxfId="155"/>
     <tableColumn id="2" xr3:uid="{873A529C-ADE9-47CF-B36A-585DA33D7B04}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5556,116 +5581,117 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="73">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrCm[[#This Row],[row_id]] ) - ROW( co_slrCm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="70">
+    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="71">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_slrCm[[#This Row],[model]], "cm", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B147:G151" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B149:G153" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="66">
+    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="67">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B138:E142" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B139:E142">
-    <sortCondition ref="E139:E142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B140:E144" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B141:E144">
+    <sortCondition ref="E141:E144"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="59">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B122:H129" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B124:H131" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="53">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputName" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{6FE2E9D8-6B04-436E-8205-1717138EBEA7}" name="idCol0" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputName" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{6FE2E9D8-6B04-436E-8205-1717138EBEA7}" name="idCol0" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="B22:G26" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:G25">
     <sortCondition ref="C33:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleInfo[[#This Row],[row_id]] ) - ROW(co_moduleInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="34" totalsRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="30">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:F116" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:G116" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scenarios[[#This Row],[row_id]] ) - ROW( co_scenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F4BED776-1DB1-4B5A-B96F-C7A6885A2CF1}" name="scenario" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5723,7 +5749,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N18" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{4AF7C1DD-F7B4-486D-93FC-71528609946F}" name="doc_tablesList" displayName="doc_tablesList" ref="B3:N18" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
   <autoFilter ref="B3:N18" xr:uid="{AD244AAD-EF2A-4E3D-905E-7CC1947F3F1F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:N18">
     <sortCondition descending="1" ref="D4:D18"/>
@@ -5731,166 +5757,166 @@
     <sortCondition ref="G4:G18"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="151">
+    <tableColumn id="1" xr3:uid="{6892DC4A-A19B-418A-9799-A326D8EAC317}" name="ID" dataDxfId="152">
       <calculatedColumnFormula xml:space="preserve"> ROW( doc_tablesList[[#This Row],[ID]] ) - ROW(doc_tablesList[[#Headers],[ID]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="150"/>
-    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="149"/>
-    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="148"/>
-    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="147">
+    <tableColumn id="2" xr3:uid="{238E4D6F-DBDF-41A4-8350-E77587A7D4B3}" name="Table Name" dataDxfId="151"/>
+    <tableColumn id="8" xr3:uid="{D46F7497-B3FD-485E-91E8-C8117D6673FA}" name="Import" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{39F2BFBD-30E6-473D-B9E5-9F407D5928C3}" name="Worksheet" dataDxfId="149"/>
+    <tableColumn id="9" xr3:uid="{507E67A6-0C2B-4342-A04B-6A8E615993E3}" name="ID_columnName" dataDxfId="148">
       <calculatedColumnFormula xml:space="preserve"> "row_id"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="146">
+    <tableColumn id="4" xr3:uid="{961C935C-163D-4860-BA16-6CB492916203}" name="Header Row" dataDxfId="147">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="145">
+    <tableColumn id="5" xr3:uid="{DD236923-3140-4EC8-BB36-1598D08E868D}" name="Number of Data Rows" dataDxfId="146">
       <calculatedColumnFormula xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="144">
+    <tableColumn id="13" xr3:uid="{F53E64F1-7445-4927-A376-2FB765265648}" name="Last Row" dataDxfId="145">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="143">
+    <tableColumn id="6" xr3:uid="{86A51CF5-A3BA-4019-9C90-7A94C7FBA534}" name="id_colIndex" dataDxfId="144">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="142">
+    <tableColumn id="7" xr3:uid="{DD29767F-0B22-4C97-9012-467EF6380323}" name="last_colIndex" dataDxfId="143">
       <calculatedColumnFormula array="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="141">
+    <tableColumn id="12" xr3:uid="{7F09C7E5-85E6-4334-8C65-926F0EE13A13}" name="num_tableCols" dataDxfId="142">
       <calculatedColumnFormula xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="140"/>
-    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="139"/>
+    <tableColumn id="11" xr3:uid="{C4016964-772D-4CB1-A4CA-7E815387BA94}" name="excludeCol_ids" dataDxfId="141"/>
+    <tableColumn id="10" xr3:uid="{1AD286DF-FF1E-4EA7-92C2-04966DE58B94}" name="Notes" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B61:L64" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80839C52-E413-4982-A35C-46B477F75688}" name="co_modelTypes" displayName="co_modelTypes" ref="B61:L64" totalsRowShown="0" headerRowDxfId="139" dataDxfId="138">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="136">
+    <tableColumn id="1" xr3:uid="{11DFD282-93A9-4795-9369-6627D14BB282}" name="row_id" dataDxfId="137">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_modelTypes[[#This Row],[row_id]] ) - ROW( co_modelTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="model_type" dataDxfId="135"/>
-    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="model_type_label" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="driverType" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="driverUnit" dataDxfId="131"/>
-    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="driverUnit_label" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="driverUnitScale" dataDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="driverRefYear" dataDxfId="128"/>
-    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="driverDataMax" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="driverMaxOutput" dataDxfId="126"/>
+    <tableColumn id="5" xr3:uid="{083A43A4-471A-4911-84CB-93A1DE17EDC1}" name="model_type" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{5A95B322-31B8-49BE-B215-52BB75258F9F}" name="model_type_label" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{540088D4-3239-4E2E-B19D-9DEA7196BB93}" name="inputName" dataDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{EDB25577-4E2B-4262-9DF5-F68DC828D4E8}" name="driverType" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{7172DDAD-67EF-469B-A2DF-E5E2773966BC}" name="driverUnit" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{0E585296-9334-4F27-8B15-1B944CD33E6C}" name="driverUnit_label" dataDxfId="131"/>
+    <tableColumn id="10" xr3:uid="{5F1496AF-7FEE-4618-AAE6-2E8C8F5433BE}" name="driverUnitScale" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{72573958-4C31-41E8-A620-C05E0EAD6C20}" name="driverRefYear" dataDxfId="129"/>
+    <tableColumn id="14" xr3:uid="{24E03EC5-2F20-4779-B9C9-9AA4430B9341}" name="driverDataMax" dataDxfId="128"/>
+    <tableColumn id="9" xr3:uid="{537B6620-4A1F-465E-B24B-88B4E9CB99EF}" name="driverMaxOutput" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B158:F168" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DBCED586-17E1-4B5C-A781-976D1E5A11BF}" name="co_regions" displayName="co_regions" ref="B160:F170" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="123">
+    <tableColumn id="1" xr3:uid="{18599272-3810-42BA-A220-485AFB1D6807}" name="row_id" dataDxfId="124">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{B2F7BCB9-ACFB-4849-90FD-501F8A0425D8}" name="area" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{60D1F88E-52A8-448B-91FE-62AD01BC601A}" name="region_order" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{FFA64F27-24E0-4D92-8E8A-6A4675CEB856}" name="region" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{56B07D04-3458-4687-B04E-181849066DB3}" name="region_label" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{B2F7BCB9-ACFB-4849-90FD-501F8A0425D8}" name="area" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{60D1F88E-52A8-448B-91FE-62AD01BC601A}" name="region_order" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impYrLvls" displayName="co_impYrLvls" ref="B32:F35" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{FBBCD2EA-5DCC-406C-B109-DA7E04AF91C0}" name="co_impYrLvls" displayName="co_impYrLvls" ref="B32:F35" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="B32:F35" xr:uid="{965CD6B2-887D-46C8-9D98-6C6AECBC7B1A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B33:F35">
     <sortCondition ref="F33:F35"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="1" xr3:uid="{CDF8B6C0-3166-4A5F-954A-6DD921A48F0D}" name="row_id" dataDxfId="117" totalsRowDxfId="116">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_impYrLvls[[#This Row],[row_id]] ) - ROW(co_impYrLvls[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="impactYear" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="impactYear_label" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="impYrNum" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="row0" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{CE04D22F-F326-49F0-9B89-F7BBAC07F272}" name="impactYear" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="4" xr3:uid="{D085A6D5-2B6A-46B4-9638-D837648BB08B}" name="impactYear_label" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{EB302892-BCFD-4CA5-B470-8D81C8E73DDE}" name="impYrNum" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="6" xr3:uid="{FADA0A2C-2C06-4E27-9064-B329CB26787D}" name="row0" dataDxfId="109" totalsRowDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarTypes" displayName="co_scalarTypes" ref="B42:C47" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}" name="co_scalarTypes" displayName="co_scalarTypes" ref="B42:C47" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B42:C47" xr:uid="{7F79E836-A486-4549-B875-6F873C0BCABB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B43:C47">
     <sortCondition ref="C43:C47"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="104">
+    <tableColumn id="1" xr3:uid="{B5AB138C-E49F-456B-8F7B-6A701BD94314}" name="row_id" dataDxfId="105">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scalarTypes[[#This Row],[row_id]] ) - ROW( co_scalarTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarType" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{057C556C-4A5B-41BF-9EA5-CD5D06EC20A3}" name="scalarType" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B52:E55" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C208A9D-6726-48D1-84E7-1F3146AFFCB6}" name="co_econMultipliers" displayName="co_econMultipliers" ref="B52:E55" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="100">
+    <tableColumn id="1" xr3:uid="{B5687CDE-96CA-4DF3-A45A-B2EDE1CC9A93}" name="row_id" dataDxfId="101">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_econMultipliers[[#This Row],[row_id]] ) - ROW( co_econMultipliers[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierLabel" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{76AF9F40-EEBA-4ABF-82CC-7580151C94E2}" name="econMultiplierName" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{BB4C0E23-5864-41DA-8215-7C526A80B49B}" name="econMultiplierLabel" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{013806BA-C4E3-46FD-AD7B-D198CFA696CD}" name="valueYear" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B92:M99" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B92:M99" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="94">
+    <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="95">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="89">
+    <tableColumn id="4" xr3:uid="{45198473-3D48-41CD-B663-D0AF13813C66}" name="inputName" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{E3847F4D-6384-49D5-8156-9EC8E8221B62}" name="inputType" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{F9249B62-F8E8-46B3-88F1-E8E0903FDD4A}" name="inputUnit" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{48BBD66A-C5AD-477C-84C9-E5FFE0D43B87}" name="inputMin" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{05D78FF1-5FB5-4CB5-AB55-8F3089B354DC}" name="inputMax" dataDxfId="90">
       <calculatedColumnFormula xml:space="preserve"> IF( ISNA( MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ), "", INDEX( co_modelTypes[driverMaxOutput], MATCH( co_inputInfo[[#This Row],[inputType]], co_modelTypes[inputName], 0 ) ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{529C7942-976A-4B70-B5DE-FAD89A0065FC}" name="refYear" dataDxfId="88"/>
-    <tableColumn id="11" xr3:uid="{33838F63-5751-4209-AF1E-14DFB927DF2E}" name="minYear" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{99885E6A-BA0C-4550-ACB2-9BF751DC0F7C}" name="valueColLC" dataDxfId="85">
+    <tableColumn id="10" xr3:uid="{529C7942-976A-4B70-B5DE-FAD89A0065FC}" name="refYear" dataDxfId="89"/>
+    <tableColumn id="11" xr3:uid="{33838F63-5751-4209-AF1E-14DFB927DF2E}" name="minYear" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{1C94F8DC-2CA2-47FD-A5E1-761F8E67704A}" name="valueCol" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{99885E6A-BA0C-4550-ACB2-9BF751DC0F7C}" name="valueColLC" dataDxfId="86">
       <calculatedColumnFormula xml:space="preserve"> LOWER( co_inputInfo[[#This Row],[valueCol]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="84"/>
-    <tableColumn id="12" xr3:uid="{FB827980-3826-439F-9F41-FE917F82F38E}" name="groupCols" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{FB827980-3826-439F-9F41-FE917F82F38E}" name="groupCols" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B173:H225" totalsRowShown="0" headerRowDxfId="82">
-  <autoFilter ref="B173:H225" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B175:H227" totalsRowShown="0" headerRowDxfId="83">
+  <autoFilter ref="B175:H227" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="82">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="76">
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="77">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6996,11 +7022,11 @@
       </c>
       <c r="K12" s="16" cm="1">
         <f t="array" aca="1" ref="K12" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L12" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M12" s="29"/>
       <c r="N12" s="28"/>
@@ -7025,7 +7051,7 @@
       </c>
       <c r="G13" s="16" cm="1">
         <f t="array" aca="1" ref="G13" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H13" s="16">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -7033,7 +7059,7 @@
       </c>
       <c r="I13" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J13" s="16" cm="1">
         <f t="array" aca="1" ref="J13" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -7072,7 +7098,7 @@
       </c>
       <c r="G14" s="16" cm="1">
         <f t="array" aca="1" ref="G14" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H14" s="16">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -7080,7 +7106,7 @@
       </c>
       <c r="I14" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J14" s="16" cm="1">
         <f t="array" aca="1" ref="J14" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -7119,7 +7145,7 @@
       </c>
       <c r="G15" s="16" cm="1">
         <f t="array" aca="1" ref="G15" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H15" s="16">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -7127,7 +7153,7 @@
       </c>
       <c r="I15" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J15" s="16" cm="1">
         <f t="array" aca="1" ref="J15" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -7166,7 +7192,7 @@
       </c>
       <c r="G16" s="16" cm="1">
         <f t="array" aca="1" ref="G16" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H16" s="16">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -7174,7 +7200,7 @@
       </c>
       <c r="I16" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J16" s="16" cm="1">
         <f t="array" aca="1" ref="J16" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -7213,7 +7239,7 @@
       </c>
       <c r="G17" s="16" cm="1">
         <f t="array" aca="1" ref="G17" ca="1" xml:space="preserve"> INDEX( ROW( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[[#Headers],[", doc_tablesList[[#This Row],[ID_columnName]], "]]" ) ) ), 1 )</f>
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H17" s="16">
         <f ca="1" xml:space="preserve"> MAX( INDIRECT( _xlfn.TEXTJOIN( "", , doc_tablesList[[#This Row],[Table Name]], "[", doc_tablesList[[#This Row],[ID_columnName]], "]" ) ) )</f>
@@ -7221,7 +7247,7 @@
       </c>
       <c r="I17" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[Number of Data Rows]] + doc_tablesList[[#This Row],[Header Row]]</f>
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J17" s="16" cm="1">
         <f t="array" aca="1" ref="J17" ca="1" xml:space="preserve"> INDEX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] &amp; "[" &amp; doc_tablesList[[#This Row],[ID_columnName]] &amp; "]" ) ), 1 )</f>
@@ -7303,11 +7329,11 @@
   <sheetPr codeName="Sheet15">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:U225"/>
+  <dimension ref="A1:U227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C117" sqref="C117"/>
+      <selection pane="topRight" activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8685,6 +8711,9 @@
       <c r="F104" s="16" t="s">
         <v>355</v>
       </c>
+      <c r="G104" s="14" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B105" s="3">
@@ -8703,6 +8732,7 @@
       <c r="F105" s="13" t="s">
         <v>346</v>
       </c>
+      <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B106" s="3">
@@ -8721,6 +8751,7 @@
       <c r="F106" s="13" t="s">
         <v>346</v>
       </c>
+      <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B107" s="3">
@@ -8739,6 +8770,9 @@
       <c r="F107" s="13" t="s">
         <v>347</v>
       </c>
+      <c r="G107" s="26" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B108" s="3">
@@ -8757,6 +8791,7 @@
       <c r="F108" s="13" t="s">
         <v>347</v>
       </c>
+      <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B109" s="3">
@@ -8775,6 +8810,7 @@
       <c r="F109" s="13" t="s">
         <v>346</v>
       </c>
+      <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B110" s="3">
@@ -8791,6 +8827,7 @@
       <c r="F110" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B111" s="3">
@@ -8807,6 +8844,7 @@
       <c r="F111" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B112" s="3">
@@ -8825,6 +8863,7 @@
       <c r="F112" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B113" s="3">
@@ -8843,6 +8882,7 @@
       <c r="F113" s="13" t="s">
         <v>141</v>
       </c>
+      <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B114" s="3">
@@ -8857,6 +8897,7 @@
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
+      <c r="G114" s="26"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B115" s="3">
@@ -8871,6 +8912,7 @@
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B116" s="3">
@@ -8885,199 +8927,160 @@
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
-    </row>
-    <row r="120" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="11" t="s">
+      <c r="G116" s="26"/>
+    </row>
+    <row r="122" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="10"/>
+      <c r="B122" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11"/>
-      <c r="U120" s="11"/>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B121" s="2" t="s">
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="11"/>
+      <c r="U122" s="11"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B122" s="14" t="s">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B124" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C124" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D124" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E124" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="F122" s="16" t="s">
+      <c r="F124" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G124" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="H122" s="16" t="s">
+      <c r="H124" s="16" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B123" s="3">
-        <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="H123" s="13"/>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B124" s="3">
-        <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
-        <v>2</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="H124" s="13"/>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B125" s="3">
         <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>338</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="H125" s="13"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B126" s="3">
         <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="E126" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>343</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="H126" s="13"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B127" s="3">
         <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>299</v>
+        <v>109</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
+      <c r="E127" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>338</v>
+      </c>
       <c r="G127" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>349</v>
+        <v>338</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B128" s="3">
         <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H128" s="13" t="s">
-        <v>348</v>
+      <c r="E128" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B129" s="3">
         <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>341</v>
@@ -9088,215 +9091,217 @@
         <v>7</v>
       </c>
       <c r="H129" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B130" s="3">
+        <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
+        <v>6</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B131" s="3">
+        <f xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</f>
+        <v>7</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="11" t="s">
+    <row r="138" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="10"/>
+      <c r="B138" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="11"/>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="U136" s="11"/>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B138" s="25" t="s">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="Q138" s="11"/>
+      <c r="R138" s="11"/>
+      <c r="S138" s="11"/>
+      <c r="T138" s="11"/>
+      <c r="U138" s="11"/>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B140" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C140" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D140" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E138" s="14" t="s">
+      <c r="E140" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B139" s="3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B141" s="3">
         <f xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C139" s="51" t="s">
+      <c r="C141" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="D139" s="26" t="s">
+      <c r="D141" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E139" s="13">
+      <c r="E141" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B140" s="54">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B142" s="54">
         <f xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C140" s="51" t="s">
+      <c r="C142" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D140" s="26" t="s">
+      <c r="D142" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E140" s="13">
+      <c r="E142" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B141" s="54">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B143" s="54">
         <f xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</f>
         <v>3</v>
       </c>
-      <c r="C141" s="51" t="s">
+      <c r="C143" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D143" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="E141" s="13">
+      <c r="E143" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B142" s="3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B144" s="3">
         <f xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</f>
         <v>4</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C144" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D142" s="26" t="s">
+      <c r="D144" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="E142" s="13">
+      <c r="E144" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="11" t="s">
+    <row r="147" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="10"/>
+      <c r="B147" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="11"/>
-      <c r="P145" s="11"/>
-      <c r="Q145" s="11"/>
-      <c r="R145" s="11"/>
-      <c r="S145" s="11"/>
-      <c r="T145" s="11"/>
-      <c r="U145" s="11"/>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B147" s="25" t="s">
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="Q147" s="11"/>
+      <c r="R147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="11"/>
+      <c r="U147" s="11"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B149" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C147" s="14" t="s">
+      <c r="C149" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D147" s="14" t="s">
+      <c r="D149" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E147" s="15" t="s">
+      <c r="E149" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="F147" s="14" t="s">
+      <c r="F149" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="G147" s="14" t="s">
+      <c r="G149" s="14" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B148" s="54">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B150" s="54">
         <f xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</f>
         <v>1</v>
       </c>
-      <c r="C148" s="51" t="s">
+      <c r="C150" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D150" s="13">
         <v>1</v>
       </c>
-      <c r="E148" s="47"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13">
+      <c r="E150" s="47"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B149" s="54">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B151" s="54">
         <f xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</f>
         <v>2</v>
       </c>
-      <c r="C149" s="51" t="s">
+      <c r="C151" s="51" t="s">
         <v>286</v>
-      </c>
-      <c r="D149" s="13">
-        <v>1</v>
-      </c>
-      <c r="E149" s="47"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B150" s="3">
-        <f xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</f>
-        <v>3</v>
-      </c>
-      <c r="C150" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="D150" s="13">
-        <v>1</v>
-      </c>
-      <c r="E150" s="47">
-        <v>1</v>
-      </c>
-      <c r="F150" s="13">
-        <v>1</v>
-      </c>
-      <c r="G150" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B151" s="3">
-        <f xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</f>
-        <v>4</v>
-      </c>
-      <c r="C151" s="51" t="s">
-        <v>288</v>
       </c>
       <c r="D151" s="13">
         <v>1</v>
@@ -9307,389 +9312,377 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="11" t="s">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B152" s="3">
+        <f xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</f>
+        <v>3</v>
+      </c>
+      <c r="C152" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D152" s="13">
+        <v>1</v>
+      </c>
+      <c r="E152" s="47">
+        <v>1</v>
+      </c>
+      <c r="F152" s="13">
+        <v>1</v>
+      </c>
+      <c r="G152" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B153" s="3">
+        <f xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</f>
+        <v>4</v>
+      </c>
+      <c r="C153" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D153" s="13">
+        <v>1</v>
+      </c>
+      <c r="E153" s="47"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+      <c r="B158" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
-      <c r="N156" s="11"/>
-      <c r="O156" s="11"/>
-      <c r="P156" s="11"/>
-      <c r="Q156" s="11"/>
-      <c r="R156" s="11"/>
-      <c r="S156" s="11"/>
-      <c r="T156" s="11"/>
-      <c r="U156" s="11"/>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B158" s="25" t="s">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="11"/>
+      <c r="U158" s="11"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B160" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C158" s="15" t="s">
+      <c r="C160" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D160" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E158" s="14" t="s">
+      <c r="E160" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="F158" s="14" t="s">
+      <c r="F160" s="14" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B159" s="3">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C159" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F159" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B160" s="3">
-        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>2</v>
-      </c>
-      <c r="C160" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="D160" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="F160" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B161" s="3">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C161" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E161" s="26" t="s">
         <v>282</v>
       </c>
       <c r="F161" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B162" s="3">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C162" s="51" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E162" s="26" t="s">
         <v>282</v>
       </c>
       <c r="F162" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B163" s="3">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C163" s="51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E163" s="26" t="s">
         <v>282</v>
       </c>
       <c r="F163" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B164" s="3">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C164" s="51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D164" s="26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E164" s="26" t="s">
         <v>282</v>
       </c>
       <c r="F164" s="13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B165" s="3">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" s="51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D165" s="26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E165" s="26" t="s">
         <v>282</v>
       </c>
       <c r="F165" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B166" s="3">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" s="51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>278</v>
+        <v>5</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F166" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B167" s="3">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C167" s="51" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D167" s="26" t="s">
-        <v>279</v>
+        <v>6</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F167" s="13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B168" s="3">
         <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>8</v>
+      </c>
+      <c r="C168" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F168" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B169" s="3">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
+        <v>9</v>
+      </c>
+      <c r="C169" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="D169" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="E169" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="F169" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B170" s="3">
+        <f xml:space="preserve"> ROW( co_regions[[#This Row],[row_id]] ) - ROW( co_regions[[#Headers],[row_id]] )</f>
         <v>10</v>
       </c>
-      <c r="C168" s="51" t="s">
+      <c r="C170" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="D168" s="26" t="s">
+      <c r="D170" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="E168" s="51" t="s">
+      <c r="E170" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="F168" s="13">
+      <c r="F170" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="11" t="s">
+    <row r="173" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="10"/>
+      <c r="B173" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="11"/>
-      <c r="L171" s="11"/>
-      <c r="M171" s="11"/>
-      <c r="N171" s="11"/>
-      <c r="O171" s="11"/>
-      <c r="P171" s="11"/>
-      <c r="Q171" s="11"/>
-      <c r="R171" s="11"/>
-      <c r="S171" s="11"/>
-      <c r="T171" s="11"/>
-      <c r="U171" s="11"/>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B173" s="2" t="s">
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
+      <c r="O173" s="11"/>
+      <c r="P173" s="11"/>
+      <c r="Q173" s="11"/>
+      <c r="R173" s="11"/>
+      <c r="S173" s="11"/>
+      <c r="T173" s="11"/>
+      <c r="U173" s="11"/>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B175" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E175" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G175" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H173" s="2" t="s">
+      <c r="H175" s="2" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B174" s="56">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>1</v>
-      </c>
-      <c r="C174" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D174" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E174" s="49">
-        <v>1</v>
-      </c>
-      <c r="F174" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="G174" s="60" t="str" cm="1">
-        <f t="array" ref="G174" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
-        <v>CONUS</v>
-      </c>
-      <c r="H174" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B175" s="56">
-        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>2</v>
-      </c>
-      <c r="C175" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D175" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="E175" s="49">
-        <v>2</v>
-      </c>
-      <c r="F175" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="G175" s="61" t="str" cm="1">
-        <f t="array" ref="G175" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
-        <v>AK</v>
-      </c>
-      <c r="H175" s="48">
-        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B176" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C176" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D176" s="48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E176" s="49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F176" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G176" s="60" t="str" cm="1">
         <f t="array" ref="G176" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H176" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B177" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C177" s="48" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="D177" s="48" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="E177" s="49">
-        <v>5</v>
-      </c>
-      <c r="F177" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="G177" s="60" t="str" cm="1">
+        <v>2</v>
+      </c>
+      <c r="F177" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G177" s="61" t="str" cm="1">
         <f t="array" ref="G177" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
-        <v>CONUS</v>
+        <v>AK</v>
       </c>
       <c r="H177" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B178" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C178" s="48" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D178" s="48" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E178" s="49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F178" s="48" t="s">
         <v>275</v>
@@ -9699,97 +9692,97 @@
         <v>CONUS</v>
       </c>
       <c r="H178" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B179" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C179" s="48" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D179" s="48" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E179" s="49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F179" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G179" s="60" t="str" cm="1">
         <f t="array" ref="G179" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H179" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B180" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" s="48" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D180" s="48" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E180" s="49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F180" s="48" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="G180" s="60" t="str" cm="1">
         <f t="array" ref="G180" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H180" s="48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B181" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>6</v>
+      </c>
+      <c r="C181" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D181" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E181" s="49">
         <v>8</v>
       </c>
-      <c r="C181" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D181" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="E181" s="49">
-        <v>10</v>
-      </c>
       <c r="F181" s="48" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="G181" s="60" t="str" cm="1">
         <f t="array" ref="G181" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H181" s="48">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B182" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>7</v>
+      </c>
+      <c r="C182" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D182" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E182" s="49">
         <v>9</v>
-      </c>
-      <c r="C182" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D182" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="E182" s="49">
-        <v>11</v>
       </c>
       <c r="F182" s="48" t="s">
         <v>194</v>
@@ -9799,172 +9792,172 @@
         <v>CONUS</v>
       </c>
       <c r="H182" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B183" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>8</v>
+      </c>
+      <c r="C183" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D183" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E183" s="49">
         <v>10</v>
       </c>
-      <c r="C183" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D183" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="E183" s="49">
-        <v>12</v>
-      </c>
       <c r="F183" s="48" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="G183" s="60" t="str" cm="1">
         <f t="array" ref="G183" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H183" s="48">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B184" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>9</v>
+      </c>
+      <c r="C184" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D184" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="49">
         <v>11</v>
       </c>
-      <c r="C184" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D184" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="E184" s="49">
-        <v>13</v>
-      </c>
       <c r="F184" s="48" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="G184" s="60" t="str" cm="1">
         <f t="array" ref="G184" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H184" s="48">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B185" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>10</v>
+      </c>
+      <c r="C185" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D185" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" s="49">
         <v>12</v>
       </c>
-      <c r="C185" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="D185" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="E185" s="49">
-        <v>15</v>
-      </c>
-      <c r="F185" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="G185" s="61" t="str" cm="1">
+      <c r="F185" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="G185" s="60" t="str" cm="1">
         <f t="array" ref="G185" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
-        <v>HI</v>
+        <v>CONUS</v>
       </c>
       <c r="H185" s="48">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B186" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>11</v>
+      </c>
+      <c r="C186" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D186" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E186" s="49">
         <v>13</v>
       </c>
-      <c r="C186" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D186" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E186" s="49">
-        <v>16</v>
-      </c>
       <c r="F186" s="48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G186" s="60" t="str" cm="1">
         <f t="array" ref="G186" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H186" s="48">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B187" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C187" s="48" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="D187" s="48" t="s">
-        <v>166</v>
+        <v>277</v>
       </c>
       <c r="E187" s="49">
-        <v>17</v>
-      </c>
-      <c r="F187" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="G187" s="60" t="str" cm="1">
+        <v>15</v>
+      </c>
+      <c r="F187" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="G187" s="61" t="str" cm="1">
         <f t="array" ref="G187" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
-        <v>CONUS</v>
+        <v>HI</v>
       </c>
       <c r="H187" s="48">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B188" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C188" s="48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D188" s="48" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="E188" s="49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F188" s="48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G188" s="60" t="str" cm="1">
         <f t="array" ref="G188" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H188" s="48">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B189" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C189" s="48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D189" s="48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E189" s="49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F189" s="48" t="s">
         <v>270</v>
@@ -9974,147 +9967,147 @@
         <v>CONUS</v>
       </c>
       <c r="H189" s="48">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B190" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C190" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D190" s="48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E190" s="49">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F190" s="48" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G190" s="60" t="str" cm="1">
         <f t="array" ref="G190" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H190" s="48">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B191" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C191" s="48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D191" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E191" s="49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F191" s="48" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G191" s="60" t="str" cm="1">
         <f t="array" ref="G191" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H191" s="48">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B192" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C192" s="48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D192" s="48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E192" s="49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F192" s="48" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G192" s="60" t="str" cm="1">
         <f t="array" ref="G192" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H192" s="48">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B193" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C193" s="48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D193" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E193" s="49">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F193" s="48" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="G193" s="60" t="str" cm="1">
         <f t="array" ref="G193" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H193" s="48">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B194" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C194" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D194" s="48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E194" s="49">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F194" s="48" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="G194" s="60" t="str" cm="1">
         <f t="array" ref="G194" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H194" s="48">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B195" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C195" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D195" s="48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E195" s="49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F195" s="48" t="s">
         <v>194</v>
@@ -10124,97 +10117,97 @@
         <v>CONUS</v>
       </c>
       <c r="H195" s="48">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B196" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C196" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D196" s="48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E196" s="49">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F196" s="48" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="G196" s="60" t="str" cm="1">
         <f t="array" ref="G196" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H196" s="48">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B197" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D197" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E197" s="49">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F197" s="48" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="G197" s="60" t="str" cm="1">
         <f t="array" ref="G197" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H197" s="48">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B198" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D198" s="48" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E198" s="49">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F198" s="48" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G198" s="60" t="str" cm="1">
         <f t="array" ref="G198" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H198" s="48">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B199" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C199" s="48" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D199" s="48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E199" s="49">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F199" s="48" t="s">
         <v>270</v>
@@ -10224,172 +10217,172 @@
         <v>CONUS</v>
       </c>
       <c r="H199" s="48">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B200" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C200" s="48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D200" s="48" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E200" s="49">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F200" s="48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G200" s="60" t="str" cm="1">
         <f t="array" ref="G200" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H200" s="48">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B201" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C201" s="48" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D201" s="48" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E201" s="49">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F201" s="48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G201" s="60" t="str" cm="1">
         <f t="array" ref="G201" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H201" s="48">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B202" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D202" s="48" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E202" s="49">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F202" s="48" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G202" s="60" t="str" cm="1">
         <f t="array" ref="G202" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H202" s="48">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B203" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C203" s="48" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D203" s="48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E203" s="49">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F203" s="48" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="G203" s="60" t="str" cm="1">
         <f t="array" ref="G203" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H203" s="48">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B204" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C204" s="48" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D204" s="48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E204" s="49">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F204" s="48" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="G204" s="60" t="str" cm="1">
         <f t="array" ref="G204" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H204" s="48">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B205" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C205" s="48" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D205" s="48" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E205" s="49">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F205" s="48" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="G205" s="60" t="str" cm="1">
         <f t="array" ref="G205" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H205" s="48">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B206" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C206" s="48" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D206" s="48" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E206" s="49">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F206" s="48" t="s">
         <v>194</v>
@@ -10399,247 +10392,247 @@
         <v>CONUS</v>
       </c>
       <c r="H206" s="48">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B207" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C207" s="48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D207" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E207" s="49">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F207" s="48" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G207" s="60" t="str" cm="1">
         <f t="array" ref="G207" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H207" s="48">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B208" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C208" s="48" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D208" s="48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E208" s="49">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F208" s="48" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="G208" s="60" t="str" cm="1">
         <f t="array" ref="G208" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H208" s="48">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B209" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C209" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D209" s="48" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E209" s="49">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F209" s="48" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G209" s="60" t="str" cm="1">
         <f t="array" ref="G209" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H209" s="48">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B210" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C210" s="48" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D210" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E210" s="49">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F210" s="48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G210" s="60" t="str" cm="1">
         <f t="array" ref="G210" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H210" s="48">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B211" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C211" s="48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D211" s="48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E211" s="49">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F211" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G211" s="60" t="str" cm="1">
         <f t="array" ref="G211" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H211" s="48">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B212" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C212" s="48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D212" s="48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E212" s="49">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F212" s="48" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="G212" s="60" t="str" cm="1">
         <f t="array" ref="G212" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H212" s="48">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B213" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C213" s="48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D213" s="48" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E213" s="49">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F213" s="48" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="G213" s="60" t="str" cm="1">
         <f t="array" ref="G213" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H213" s="48">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B214" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C214" s="48" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D214" s="48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E214" s="49">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F214" s="48" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="G214" s="60" t="str" cm="1">
         <f t="array" ref="G214" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H214" s="48">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B215" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C215" s="48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D215" s="48" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E215" s="49">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F215" s="48" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="G215" s="60" t="str" cm="1">
         <f t="array" ref="G215" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H215" s="48">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B216" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C216" s="48" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D216" s="48" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E216" s="49">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F216" s="48" t="s">
         <v>273</v>
@@ -10649,231 +10642,281 @@
         <v>CONUS</v>
       </c>
       <c r="H216" s="48">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B217" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C217" s="48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D217" s="48" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E217" s="49">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F217" s="48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G217" s="60" t="str" cm="1">
         <f t="array" ref="G217" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H217" s="48">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B218" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C218" s="48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D218" s="48" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E218" s="49">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F218" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G218" s="60" t="str" cm="1">
         <f t="array" ref="G218" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H218" s="48">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B219" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C219" s="48" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D219" s="48" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E219" s="49">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F219" s="48" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="G219" s="60" t="str" cm="1">
         <f t="array" ref="G219" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H219" s="48">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B220" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C220" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D220" s="48" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E220" s="49">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F220" s="48" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G220" s="60" t="str" cm="1">
         <f t="array" ref="G220" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H220" s="48">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B221" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C221" s="48" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D221" s="48" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E221" s="49">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F221" s="48" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="G221" s="60" t="str" cm="1">
         <f t="array" ref="G221" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H221" s="48">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B222" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C222" s="48" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D222" s="48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E222" s="49">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F222" s="48" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="G222" s="60" t="str" cm="1">
         <f t="array" ref="G222" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H222" s="48">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B223" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C223" s="48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D223" s="48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E223" s="49">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F223" s="48" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G223" s="60" t="str" cm="1">
         <f t="array" ref="G223" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H223" s="48">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B224" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C224" s="48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D224" s="48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E224" s="49">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F224" s="48" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="G224" s="60" t="str" cm="1">
         <f t="array" ref="G224" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>CONUS</v>
       </c>
       <c r="H224" s="48">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B225" s="56">
         <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>50</v>
+      </c>
+      <c r="C225" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="D225" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="E225" s="49">
+        <v>55</v>
+      </c>
+      <c r="F225" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="G225" s="60" t="str" cm="1">
+        <f t="array" ref="G225" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
+        <v>CONUS</v>
+      </c>
+      <c r="H225" s="48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B226" s="56">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
+        <v>51</v>
+      </c>
+      <c r="C226" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D226" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E226" s="49">
+        <v>56</v>
+      </c>
+      <c r="F226" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="G226" s="60" t="str" cm="1">
+        <f t="array" ref="G226" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
+        <v>CONUS</v>
+      </c>
+      <c r="H226" s="48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B227" s="56">
+        <f xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</f>
         <v>52</v>
       </c>
-      <c r="C225" s="48" t="s">
+      <c r="C227" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D225" s="48" t="s">
+      <c r="D227" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="E225" s="55">
+      <c r="E227" s="55">
         <v>0</v>
       </c>
-      <c r="F225" s="49" t="s">
+      <c r="F227" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="G225" s="61" t="str" cm="1">
-        <f t="array" ref="G225" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
+      <c r="G227" s="61" t="str" cm="1">
+        <f t="array" ref="G227" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</f>
         <v>US</v>
       </c>
-      <c r="H225" s="48">
+      <c r="H227" s="48">
         <v>52</v>
       </c>
     </row>

--- a/inst/extdata/controlTables.xlsx
+++ b/inst/extdata/controlTables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A098C3-926A-40EC-87BE-15D09BCCE555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD36182-05FD-4DF5-AD2B-C469B567ECA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="367">
   <si>
     <t>Midwest</t>
   </si>
@@ -2280,6 +2280,31 @@
   </cellStyles>
   <dxfs count="160">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -3100,31 +3125,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5630,68 +5630,67 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B124:H131" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B124:G131" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="53">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputName" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{6FE2E9D8-6B04-436E-8205-1717138EBEA7}" name="idCol0" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B22:G26" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:G25">
     <sortCondition ref="C33:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleInfo[[#This Row],[row_id]] ) - ROW(co_moduleInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="35" totalsRowDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="31">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:G116" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:G116" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="24">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scenarios[[#This Row],[row_id]] ) - ROW( co_scenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{F4BED776-1DB1-4B5A-B96F-C7A6885A2CF1}" name="scenario" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F4BED776-1DB1-4B5A-B96F-C7A6885A2CF1}" name="scenario" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5701,10 +5700,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="18">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -5713,16 +5712,16 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="14">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5732,17 +5731,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="9">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5877,8 +5876,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B92:M99" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{90989828-E88F-4E7D-9FFC-173F0C723DE9}" name="co_inputInfo" displayName="co_inputInfo" ref="B92:N99" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{66AD6D28-7A41-4AD2-93FD-110433F1C5A5}" name="row_id" dataDxfId="95">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_inputInfo[[#This Row],[row_id]] ) - ROW( co_inputInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
@@ -5897,6 +5896,7 @@
     </tableColumn>
     <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="85"/>
     <tableColumn id="12" xr3:uid="{FB827980-3826-439F-9F41-FE917F82F38E}" name="groupCols" dataDxfId="84"/>
+    <tableColumn id="13" xr3:uid="{85CFD1EB-2080-4260-A066-309BD3B1C8B8}" name="idCol0" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6975,11 +6975,11 @@
       </c>
       <c r="K11" s="16" cm="1">
         <f t="array" aca="1" ref="K11" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11" s="29"/>
       <c r="N11" s="28" t="s">
@@ -7067,11 +7067,11 @@
       </c>
       <c r="K13" s="16" cm="1">
         <f t="array" aca="1" ref="K13" ca="1" xml:space="preserve"> MAX( COLUMN( INDIRECT( doc_tablesList[[#This Row],[Table Name]] ) ) )</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" s="16">
         <f ca="1" xml:space="preserve"> doc_tablesList[[#This Row],[last_colIndex]] - doc_tablesList[[#This Row],[id_colIndex]] + 1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M13" s="29"/>
       <c r="N13" s="28" t="s">
@@ -7331,9 +7331,9 @@
   </sheetPr>
   <dimension ref="A1:U227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A120" sqref="A120:XFD120"/>
+      <selection pane="topRight" activeCell="D125" sqref="D125:D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8404,6 +8404,9 @@
       <c r="M92" s="14" t="s">
         <v>361</v>
       </c>
+      <c r="N92" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B93" s="3">
@@ -8442,6 +8445,9 @@
       <c r="M93" s="13" t="s">
         <v>362</v>
       </c>
+      <c r="N93" s="13" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B94" s="3">
@@ -8480,6 +8486,9 @@
       <c r="M94" s="13" t="s">
         <v>362</v>
       </c>
+      <c r="N94" s="13" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B95" s="3">
@@ -8517,6 +8526,9 @@
         <v>0</v>
       </c>
       <c r="M95" s="13"/>
+      <c r="N95" s="13" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B96" s="3">
@@ -8556,6 +8568,9 @@
       <c r="M96" s="13" t="s">
         <v>364</v>
       </c>
+      <c r="N96" s="13" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B97" s="3">
@@ -8593,6 +8608,9 @@
         <v>0</v>
       </c>
       <c r="M97" s="13"/>
+      <c r="N97" s="13" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B98" s="3">
@@ -8630,6 +8648,9 @@
         <v>0</v>
       </c>
       <c r="M98" s="13"/>
+      <c r="N98" s="13" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B99" s="3">
@@ -8668,6 +8689,9 @@
       </c>
       <c r="M99" s="13" t="s">
         <v>363</v>
+      </c>
+      <c r="N99" s="13" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -8732,7 +8756,9 @@
       <c r="F105" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G105" s="26"/>
+      <c r="G105" s="26" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B106" s="3">
@@ -8751,7 +8777,9 @@
       <c r="F106" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G106" s="26"/>
+      <c r="G106" s="26" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B107" s="3">
@@ -8791,7 +8819,9 @@
       <c r="F108" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="G108" s="26"/>
+      <c r="G108" s="26" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B109" s="3">
@@ -8810,7 +8840,9 @@
       <c r="F109" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G109" s="26"/>
+      <c r="G109" s="26" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B110" s="3">
@@ -8967,18 +8999,15 @@
         <v>107</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="E124" s="14" t="s">
         <v>284</v>
       </c>
+      <c r="E124" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="F124" s="16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="H124" s="16" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8990,8 +9019,8 @@
       <c r="C125" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>362</v>
+      <c r="D125" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>342</v>
@@ -8999,10 +9028,7 @@
       <c r="F125" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="G125" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="H125" s="13"/>
+      <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B126" s="3">
@@ -9012,8 +9038,8 @@
       <c r="C126" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>362</v>
+      <c r="D126" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="E126" s="13" t="s">
         <v>342</v>
@@ -9021,10 +9047,7 @@
       <c r="F126" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="G126" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="H126" s="13"/>
+      <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B127" s="3">
@@ -9034,8 +9057,8 @@
       <c r="C127" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D127" s="6" t="s">
-        <v>341</v>
+      <c r="D127" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>338</v>
@@ -9043,10 +9066,7 @@
       <c r="F127" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="G127" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="H127" s="6" t="s">
+      <c r="G127" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9059,7 +9079,7 @@
         <v>110</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>343</v>
@@ -9068,9 +9088,6 @@
         <v>343</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H128" s="6" t="s">
         <v>343</v>
       </c>
     </row>
@@ -9082,15 +9099,12 @@
       <c r="C129" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D129" s="6" t="s">
-        <v>341</v>
-      </c>
+      <c r="D129" s="13"/>
       <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
+      <c r="F129" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="G129" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="13" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9102,15 +9116,12 @@
       <c r="C130" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D130" s="6" t="s">
-        <v>341</v>
-      </c>
+      <c r="D130" s="13"/>
       <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
+      <c r="F130" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="G130" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H130" s="13" t="s">
         <v>348</v>
       </c>
     </row>
@@ -9122,15 +9133,12 @@
       <c r="C131" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>341</v>
-      </c>
+      <c r="D131" s="13"/>
       <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
+      <c r="F131" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="G131" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="13" t="s">
         <v>350</v>
       </c>
     </row>

--- a/inst/extdata/controlTables.xlsx
+++ b/inst/extdata/controlTables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD36182-05FD-4DF5-AD2B-C469B567ECA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A10044-70CF-404A-9127-3335E551AB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" tabRatio="764" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="48" r:id="rId1"/>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="367">
   <si>
     <t>Midwest</t>
   </si>
@@ -2280,31 +2280,6 @@
   </cellStyles>
   <dxfs count="160">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -3713,6 +3688,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5581,116 +5581,116 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFE6321-7DE3-4183-8A83-7F36C85C9DB0}" name="co_slrCm" displayName="co_slrCm" ref="B79:E86" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{3762ECAE-6A4D-4316-A236-8B365D0626D2}" name="row_id" dataDxfId="72">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_slrCm[[#This Row],[row_id]] ) - ROW( co_slrCm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{652FAEDD-ACCA-4F89-BB09-D0259DE4EBDE}" name="model" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{4E21FF99-5816-430F-A59C-839B9DED59AD}" name="model_cm" dataDxfId="70">
       <calculatedColumnFormula xml:space="preserve"> SUBSTITUTE( co_slrCm[[#This Row],[model]], "cm", "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="70"/>
+    <tableColumn id="20" xr3:uid="{494DF020-2C7F-4BEC-BF92-2D1C2997DB71}" name="model_type" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B149:G153" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D0C88C5-F2A7-46B8-8C69-B1B5A09A785D}" name="co_moduleAreas" displayName="co_moduleAreas" ref="B149:G153" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{6B39C0F6-F51F-46E7-B871-D79691468859}" name="row_id" dataDxfId="66">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleAreas[[#This Row],[row_id]] ) - ROW( co_moduleAreas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{FA7D71D8-3E5E-4160-8B14-D5765D9F310B}" name="module" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{FF99F0AF-3896-4181-B4BA-A7BCCD26281F}" name="CONUS" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{8D6CF49E-2833-4B79-B861-B3E559469D80}" name="AK" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{FBF0E9DC-EC64-4AAB-85A0-909CE7D91B5C}" name="HI" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{ECDD11B8-8AA9-466D-9A95-87825C1F011B}" name="US" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B140:E144" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A7B7951-C6F2-4FD3-A1BB-7026F6A8E846}" name="co_areas" displayName="co_areas" ref="B140:E144" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B141:E144">
     <sortCondition ref="E141:E144"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{E7EF0B14-6E39-4AC7-AF6C-1F6122F80A00}" name="row_id" dataDxfId="58">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_areas[[#This Row],[row_id]] ) - ROW( co_areas[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{8E314417-76FC-49D4-8395-68E6821400F1}" name="area" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{D3346EB3-CC6E-4F56-99C1-5CA14B2AA885}" name="area_label" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{49EF0AA8-E61C-4619-9F0A-C99D809CE4D7}" name="area_order" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B124:G131" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{130DC324-CB3E-4D07-B21F-C092D038DD02}" name="co_moduleScenarios" displayName="co_moduleScenarios" ref="B124:G131" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{153273EE-D49C-43E7-89D3-640CF711FDD6}" name="row_id" dataDxfId="52">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleScenarios[[#This Row],[row_id]] ) - ROW( co_moduleScenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputName" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{F54B7C7D-6137-4D7A-AA53-E6EC1A4D870B}" name="inputName" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{8C7B1E0B-A838-4C25-BD81-F2D99A20C316}" name="fredi" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{DE883AA6-AFB1-4ECB-81BC-2DBBBB7D9EC6}" name="sv" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{03493EE6-57B6-434B-89CB-00D18647CE1C}" name="extremes" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{FD0E66B9-364C-46F1-A441-3593D5002F5F}" name="ghg" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}" name="co_moduleInfo" displayName="co_moduleInfo" ref="B22:G26" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="B22:G26" xr:uid="{6E826C61-9F11-4955-B19C-8112C0F6EC23}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B23:G25">
     <sortCondition ref="C33:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{1E91507F-C783-4AF1-A2DC-F0D550DB8228}" name="row_id" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleInfo[[#This Row],[row_id]] ) - ROW(co_moduleInfo[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{C5A172CB-7A1A-40A6-B5FF-ADA60A854570}" name="module" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{40CB1771-C104-47EE-A9D3-FC2266D98E31}" name="defaultMinYr" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{361574C9-CD04-4844-8EA4-8686C22861AF}" name="defaultMaxYr" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{BE556F7A-79ED-4CF4-9DE1-89B19E392F66}" name="moduleMinYr" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{EE868D0F-708E-48BF-843C-D20D3F01FC0A}" name="moduleMaxYr" dataDxfId="34" totalsRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3617F852-F5F0-4F60-AE1D-02F268E7E5D0}" name="co_moduleModTypes" displayName="co_moduleModTypes" ref="B69:F73" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{B2363595-A68F-4CF5-9F7E-DD47303CE84C}" name="row_id" dataDxfId="30">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_moduleModTypes[[#This Row],[row_id]] ) - ROW( co_moduleModTypes[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{D18390C5-26C7-473C-9856-A402FD3A0AEF}" name="module" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{C4E5B6A3-7C3C-4259-823B-02A74FE928D8}" name="gcm" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{F47429F2-FAE8-479B-9DBC-65A9498A8337}" name="slr" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{935107B0-7729-4F94-B463-7640686C80D6}" name="gcm_ghg" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:G116" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{826DC812-3005-4F51-B0FF-C3E353D9AAA4}" name="co_scenarios" displayName="co_scenarios" ref="B104:G116" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{6346090C-91C3-4EDB-A7F1-370F8A29D56E}" name="row_id" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_scenarios[[#This Row],[row_id]] ) - ROW( co_scenarios[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{F4BED776-1DB1-4B5A-B96F-C7A6885A2CF1}" name="scenario" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{AF567B04-BAFE-4398-9598-BABE0A898EC3}" name="scenarioName" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{11EC5AD1-152B-4E01-89B5-BF7C4B3D34E7}" name="inputName" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{713CE323-B977-4F6A-A751-4F21E1A47B9D}" name="inputArgType" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{A3EF825F-7245-45C7-97D2-FB17A58B2688}" name="inputArgVal" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F4BED776-1DB1-4B5A-B96F-C7A6885A2CF1}" name="scenario" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5700,10 +5700,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}" name="Readme_adaptations" displayName="Readme_adaptations" ref="B9:E15" totalsRowShown="0">
   <autoFilter ref="B9:E15" xr:uid="{0D47D4A9-4D0B-4BD8-9445-F4282AA644C2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{F4BD4BA2-1D8F-424B-9A8C-E20589922BC9}" name="row_id" dataDxfId="17">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_adaptations[[#This Row],[row_id]] ) - ROW( Readme_adaptations[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{8F8CD713-0ECF-4957-8E94-F3FC5C746031}" name="sector_id" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{13712644-0D89-49D5-9571-32BD03BF1BD3}" name="adapt_id"/>
     <tableColumn id="3" xr3:uid="{B89736B7-3040-4F82-B2CC-EB15F47F50B3}" name="adapt_label"/>
   </tableColumns>
@@ -5712,16 +5712,16 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}" name="Readme_sectors" displayName="Readme_sectors" ref="B3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B3:F5" xr:uid="{58C7AF19-DB28-47F8-BE56-AE985DF1009B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{055BC283-B8DC-4F37-B787-CE15D79337AE}" name="row_id" dataDxfId="13">
       <calculatedColumnFormula xml:space="preserve"> ROW( Readme_sectors[[#This Row],[row_id]] ) - ROW( Readme_sectors[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F1DE1E87-7416-4EC2-83F4-443E818D69E2}" name="sector_id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{69F42C58-EA29-416E-A03E-490DCD1DAC6F}" name="adapt_id" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{995768DD-996C-4A25-A331-EA651CF80A08}" name="adapt_label" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B607221E-C635-413E-A992-7E4B369F50F2}" name="Description" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5731,17 +5731,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}" name="slr_cm" displayName="slr_cm" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{1F6E1C40-0D2A-408F-87EE-36A6B84C2F85}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{F80AE68D-CB1F-4EA7-B8F9-94BBA2F3B4C7}" name="row_id" dataDxfId="8">
       <calculatedColumnFormula xml:space="preserve"> ROW( slr_cm[[#This Row],[row_id]] ) - ROW( slr_cm[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{FA4EDD13-4E7E-45A3-BAE3-E9197F3C6F46}" name="year" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8C03079C-35A7-401C-8DAF-080D8590CAF6}" name="0cm" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{BF06645C-1E6B-49DC-BFF3-41DC055BA794}" name="30cm" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{A579CC42-A3A8-4F15-AA9F-71AF71D9FC92}" name="50cm" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3B78BF10-85AF-4256-B6E0-8C448D28F844}" name="100cm" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B9B22AB8-C0E3-43FA-8E5B-D07A4AB2C538}" name="150cm" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{763A0097-0CCB-4D1D-A0D6-FDF4FE810AFE}" name="200cm" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FB0A96A9-E5BF-4003-9D05-D514A5B55CB9}" name="250cm" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5896,27 +5896,27 @@
     </tableColumn>
     <tableColumn id="9" xr3:uid="{AAA49909-67E1-4978-90ED-573C388A520B}" name="regional" dataDxfId="85"/>
     <tableColumn id="12" xr3:uid="{FB827980-3826-439F-9F41-FE917F82F38E}" name="groupCols" dataDxfId="84"/>
-    <tableColumn id="13" xr3:uid="{85CFD1EB-2080-4260-A066-309BD3B1C8B8}" name="idCol0" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{85CFD1EB-2080-4260-A066-309BD3B1C8B8}" name="idCol0" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B175:H227" totalsRowShown="0" headerRowDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}" name="co_states" displayName="co_states" ref="B175:H227" totalsRowShown="0" headerRowDxfId="82">
   <autoFilter ref="B175:H227" xr:uid="{260FF6F7-3417-4AB0-990E-0C31BC977851}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="82">
+    <tableColumn id="1" xr3:uid="{B802A69B-2E07-40A2-ADE9-DCABCB2E04A6}" name="row_id" dataDxfId="81">
       <calculatedColumnFormula xml:space="preserve"> ROW( co_states[[#This Row],[row_id]] ) - ROW( co_states[[#Headers],[row_id]] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="77">
+    <tableColumn id="2" xr3:uid="{5B715195-2EAE-439A-84CF-1C26F65065E0}" name="state" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{42CA1BFA-BDCF-464B-91DB-4C9663461C1C}" name="postal" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{5807F5A8-31A9-4CC5-8FA0-243CB9917CD4}" name="fips" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{75C24D34-7FF1-4D85-8B86-75A1F1B7EF6C}" name="region" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{B0056655-B67E-486D-8580-C33D8B965DEB}" name="area" dataDxfId="76">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX( co_regions[area], MATCH( 1, --( co_states[[#This Row],[region]] = co_regions[region] ), 0 ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{FD967E7F-5A29-4247-8725-12F353B23771}" name="state_order" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7331,9 +7331,9 @@
   </sheetPr>
   <dimension ref="A1:U227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D125" sqref="D125:D131"/>
+      <selection pane="topRight" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9060,9 +9060,7 @@
       <c r="D127" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="E127" s="13" t="s">
-        <v>338</v>
-      </c>
+      <c r="E127" s="13"/>
       <c r="F127" s="13" t="s">
         <v>338</v>
       </c>
